--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,6 +398,48 @@
         <v>308.97</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>F45113_1557312179</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>43593.48820854436</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>T-Shirt</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Adidas; </t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,258 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F27539_1557412383</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43594.6480195222</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T-Shirt Futebol</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: T-Shirt Barcelona; </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>70</v>
+      </c>
+      <c r="J3" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F79397_1557412714</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43594.65182615904</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T-Shirt Futebol</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: T-Shirt Barcelona; </t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>F28439_1557412821</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43594.65306721765</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T-Shirt Futebol</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: T-Shirt Barcelona; </t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>F71258_1557412824</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43594.65309741614</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T-Shirt Futebol</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: T-Shirt Barcelona; </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J6" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F32966_1557412900</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43594.65397652607</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T-Shirt Futebol</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: T-Shirt Real Madrid; </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>94.98999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>94.98999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F25028_1557413796</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43594.66433890544</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T-Shirt Futebol</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: T-Shirt Barcelona; </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>70</v>
+      </c>
+      <c r="J8" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
